--- a/players_stats/Damien Wilkins.xlsx
+++ b/players_stats/Damien Wilkins.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1984-85</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,92 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SF-PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>520</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="L2" t="n">
+        <v>168</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="N2" t="n">
         <v>16</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="S2" t="n">
-        <v>0.267</v>
+        <v>0.523</v>
       </c>
       <c r="T2" t="n">
-        <v>0.25</v>
+        <v>0.482</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="V2" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="W2" t="n">
-        <v>0.857</v>
+        <v>0.618</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 208</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -663,9 +663,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>221</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -676,15 +674,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1984-85</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -694,88 +692,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>1525</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>435</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>56</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.25</v>
+      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>379</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.472</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
+        <v>162</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.84</v>
+      </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 208</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -783,9 +785,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>221</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -796,15 +796,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1984-85</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,88 +818,88 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>2037</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>602</v>
       </c>
       <c r="M4" t="n">
-        <v>0.286</v>
+        <v>0.435</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="R4" t="n">
-        <v>13</v>
+        <v>480</v>
       </c>
       <c r="S4" t="n">
-        <v>0.308</v>
+        <v>0.442</v>
       </c>
       <c r="T4" t="n">
-        <v>0.286</v>
+        <v>0.477</v>
       </c>
       <c r="U4" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="V4" t="n">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="W4" t="n">
-        <v>0.857</v>
+        <v>0.882</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>724</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 208</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -907,9 +907,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
-        <v>221</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -920,114 +918,966 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>76</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1843</v>
+      </c>
+      <c r="K5" t="n">
+        <v>271</v>
+      </c>
+      <c r="L5" t="n">
+        <v>673</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="N5" t="n">
+        <v>50</v>
+      </c>
+      <c r="O5" t="n">
+        <v>155</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>221</v>
+      </c>
+      <c r="R5" t="n">
+        <v>518</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="U5" t="n">
+        <v>106</v>
+      </c>
+      <c r="V5" t="n">
+        <v>144</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="X5" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>173</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>245</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>89</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>128</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>698</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 198</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>636</v>
+      </c>
+      <c r="K6" t="n">
+        <v>77</v>
+      </c>
+      <c r="L6" t="n">
+        <v>213</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="N6" t="n">
+        <v>27</v>
+      </c>
+      <c r="O6" t="n">
+        <v>72</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>50</v>
+      </c>
+      <c r="R6" t="n">
+        <v>141</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="U6" t="n">
+        <v>37</v>
+      </c>
+      <c r="V6" t="n">
+        <v>46</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="X6" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>218</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 198</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" t="n">
+        <v>31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1585</v>
+      </c>
+      <c r="K7" t="n">
+        <v>165</v>
+      </c>
+      <c r="L7" t="n">
+        <v>381</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="N7" t="n">
+        <v>18</v>
+      </c>
+      <c r="O7" t="n">
+        <v>61</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>147</v>
+      </c>
+      <c r="R7" t="n">
+        <v>320</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="U7" t="n">
+        <v>103</v>
+      </c>
+      <c r="V7" t="n">
+        <v>129</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.7979999999999999</v>
+      </c>
+      <c r="X7" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>177</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>249</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>135</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>66</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>76</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>451</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 198</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>31</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>52</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>676</v>
+      </c>
+      <c r="K8" t="n">
+        <v>69</v>
+      </c>
+      <c r="L8" t="n">
+        <v>137</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>67</v>
+      </c>
+      <c r="R8" t="n">
+        <v>127</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40</v>
+      </c>
+      <c r="V8" t="n">
+        <v>56</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.7140000000000001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>72</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 198</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>922</v>
+      </c>
+      <c r="K9" t="n">
+        <v>76</v>
+      </c>
+      <c r="L9" t="n">
+        <v>193</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>23</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>69</v>
+      </c>
+      <c r="R9" t="n">
+        <v>170</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="U9" t="n">
+        <v>34</v>
+      </c>
+      <c r="V9" t="n">
+        <v>54</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>193</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 198</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2012-13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>33</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>61</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1095</v>
+      </c>
+      <c r="K10" t="n">
+        <v>145</v>
+      </c>
+      <c r="L10" t="n">
+        <v>316</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>51</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>128</v>
+      </c>
+      <c r="R10" t="n">
+        <v>265</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="U10" t="n">
+        <v>81</v>
+      </c>
+      <c r="V10" t="n">
+        <v>109</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="X10" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>49</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>98</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>388</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 198</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>38</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>19</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>152</v>
+      </c>
+      <c r="K11" t="n">
+        <v>13</v>
+      </c>
+      <c r="L11" t="n">
+        <v>39</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>18</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>21</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 198</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>45</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>16</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 208</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 99 </t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>582</v>
+      </c>
+      <c r="I12" t="n">
+        <v>150</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10991</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1344</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3157</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="N12" t="n">
+        <v>205</v>
+      </c>
+      <c r="O12" t="n">
+        <v>627</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1139</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2530</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="U12" t="n">
+        <v>711</v>
+      </c>
+      <c r="V12" t="n">
+        <v>908</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.7829999999999999</v>
+      </c>
+      <c r="X12" t="n">
+        <v>441</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>921</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1362</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>796</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>431</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>524</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>945</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3604</v>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 198</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ5" t="n">
-        <v>221</v>
-      </c>
+      <c r="AJ12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
